--- a/Information/estimation.xlsx
+++ b/Information/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11880" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="751" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -156,6 +156,78 @@
   </si>
   <si>
     <t>faire 2,5 pour le temps rééel</t>
+  </si>
+  <si>
+    <t>Faire le premier commit(remise feuille temps et synopsis/ faire marcher git)</t>
+  </si>
+  <si>
+    <t>30-01-2017</t>
+  </si>
+  <si>
+    <t>Coder un fragment… avancé 1%</t>
+  </si>
+  <si>
+    <t>31-01-2017</t>
+  </si>
+  <si>
+    <t>Faire le custom list view</t>
+  </si>
+  <si>
+    <t>06-02-2017</t>
+  </si>
+  <si>
+    <t>Faire marcher le custom list view (Assets folder for custom xml files) + file reader</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>07-02-2017</t>
+  </si>
+  <si>
+    <t>08-02-2017</t>
+  </si>
+  <si>
+    <t>comprendre pourquoi drawer compile pas….</t>
+  </si>
+  <si>
+    <t>12-02-2017</t>
+  </si>
+  <si>
+    <t>mise en commentaire du drawer</t>
+  </si>
+  <si>
+    <t>je déteste android, ca fait aucun sense.  Mes  fichier ressource plante sans expliquation, mes fragment ne compile mais font planter l'app des l'ouverture. Ca saute de partout en gros. Je pensse tout jetter a terre et recommencer de 0.   je vais faire une app hardcoder utilisant des string ressource interne,  pour avoir de quoi qui compile et qui ne plante pas.</t>
+  </si>
+  <si>
+    <t>faire l'interface de base</t>
+  </si>
+  <si>
+    <t>faire l'interface des evenement</t>
+  </si>
+  <si>
+    <t>faire ouvrir une nouvelle activité</t>
+  </si>
+  <si>
+    <t>créer les evenement (bug les fichier ressource des string ne prend pas les apostrohpe!)</t>
+  </si>
+  <si>
+    <t>débuger les apostrophe du fichier string</t>
+  </si>
+  <si>
+    <t>13-02-2017</t>
+  </si>
+  <si>
+    <t>14-02-2017</t>
+  </si>
+  <si>
+    <t>18-02-2017</t>
+  </si>
+  <si>
+    <t>19-02-2017</t>
+  </si>
+  <si>
+    <t>JETTER LE PROJET /faire la restructuration du plan de match</t>
   </si>
 </sst>
 </file>
@@ -1864,14 +1936,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="71.77734375" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1922,79 +1994,169 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="A28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -2043,7 +2205,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2056,7 +2218,9 @@
       <c r="A40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
@@ -2065,7 +2229,9 @@
       <c r="A42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>

--- a/Information/estimation.xlsx
+++ b/Information/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="751" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="751" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -228,6 +225,63 @@
   </si>
   <si>
     <t>JETTER LE PROJET /faire la restructuration du plan de match</t>
+  </si>
+  <si>
+    <t>21-02-2017</t>
+  </si>
+  <si>
+    <t>Création serveur</t>
+  </si>
+  <si>
+    <t>Création BD</t>
+  </si>
+  <si>
+    <t>Remplissage BD</t>
+  </si>
+  <si>
+    <t>Création requete</t>
+  </si>
+  <si>
+    <t>06-03-2017</t>
+  </si>
+  <si>
+    <t>07-03-2017</t>
+  </si>
+  <si>
+    <t>creation Drawer</t>
+  </si>
+  <si>
+    <t>Personalisation du drawer</t>
+  </si>
+  <si>
+    <t>on click even(open browser on click)</t>
+  </si>
+  <si>
+    <t>Mergin v_2 et drawer pour donner la v_3</t>
+  </si>
+  <si>
+    <t>12-3-2017</t>
+  </si>
+  <si>
+    <t>Changer les couleur de l'app et personaliser un peux plus.</t>
+  </si>
+  <si>
+    <t>Faire le send et le partager du drawer</t>
+  </si>
+  <si>
+    <t>faire les scroll view</t>
+  </si>
+  <si>
+    <t>13-3-2017</t>
+  </si>
+  <si>
+    <t>db provider</t>
+  </si>
+  <si>
+    <t>rendre le drawer utilisable dans les sous activité</t>
+  </si>
+  <si>
+    <t>ouvrir android studio…. Ce soir…. A pris 1h30….</t>
   </si>
 </sst>
 </file>
@@ -371,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1692,7 +1747,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1737,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -1748,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3">
         <v>15</v>
@@ -1759,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <v>25</v>
@@ -1770,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3">
         <v>15</v>
@@ -1781,17 +1836,17 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>61</v>
@@ -1825,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
@@ -1836,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -1847,7 +1902,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3">
         <v>7</v>
@@ -1858,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
@@ -1869,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
@@ -1880,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3">
         <v>7</v>
@@ -1901,10 +1956,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>33</v>
@@ -1918,7 +1973,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1995,10 +2050,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="15">
         <v>1</v>
@@ -2006,10 +2061,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C15" s="15">
         <v>2.5</v>
@@ -2017,10 +2072,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="15">
         <v>3</v>
@@ -2028,10 +2083,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="15">
         <v>2</v>
@@ -2039,10 +2094,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="15">
         <v>1</v>
@@ -2050,10 +2105,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="15">
         <v>2</v>
@@ -2061,10 +2116,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="15">
         <v>1</v>
@@ -2072,10 +2127,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="15">
         <v>0.75</v>
@@ -2083,10 +2138,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C22" s="15">
         <v>0.5</v>
@@ -2094,10 +2149,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="15">
         <v>2</v>
@@ -2105,10 +2160,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15">
         <v>0.5</v>
@@ -2116,10 +2171,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="15">
         <v>0.75</v>
@@ -2127,10 +2182,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="15">
         <v>2</v>
@@ -2138,10 +2193,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="15">
         <v>1</v>
@@ -2149,10 +2204,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="15">
         <v>0.25</v>
@@ -2199,10 +2254,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>20.25</v>
@@ -2210,13 +2265,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4">
         <v>9</v>
@@ -2227,26 +2282,26 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2263,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,71 +2376,137 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -2393,9 +2514,15 @@
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="A28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -2438,24 +2565,24 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2464,24 +2591,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2671,10 +2798,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2682,13 +2809,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2697,24 +2824,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2768,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2904,10 +3031,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2915,13 +3042,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2930,24 +3057,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Information/estimation.xlsx
+++ b/Information/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="751" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="751" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -282,6 +282,36 @@
   </si>
   <si>
     <t>ouvrir android studio…. Ce soir…. A pris 1h30….</t>
+  </si>
+  <si>
+    <t>Recherche de differente solution pour le serveur</t>
+  </si>
+  <si>
+    <t>exploration des divert solution trouver</t>
+  </si>
+  <si>
+    <t>création du serveur</t>
+  </si>
+  <si>
+    <t>jonction serveur et application android</t>
+  </si>
+  <si>
+    <t>faire un bouton partager directement dans l'activité d'évenement</t>
+  </si>
+  <si>
+    <t>faire le bouton partager dans le drawer(dropped)//probleme d'héritage multiple</t>
+  </si>
+  <si>
+    <t>aprendre le php et sa syntaxe</t>
+  </si>
+  <si>
+    <t>creation de la bd</t>
+  </si>
+  <si>
+    <t>inséré dans la bd</t>
+  </si>
+  <si>
+    <t>lire dans la bd(bug)</t>
   </si>
 </sst>
 </file>
@@ -425,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,6 +493,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1843,10 +1875,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>61</v>
@@ -1956,10 +1988,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>33</v>
@@ -2254,10 +2286,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>20.25</v>
@@ -2284,24 +2316,24 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2318,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2565,10 +2597,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>19</v>
@@ -2593,22 +2625,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2625,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2683,38 +2715,72 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="20">
+        <v>42815</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="19">
+        <v>42815</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="19">
+        <v>42821</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="19">
+        <v>42824</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="19">
+        <v>42834</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2723,19 +2789,37 @@
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="19">
+        <v>42824</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="19">
+        <v>42829</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="19">
+        <v>42829</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -2798,13 +2882,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2826,22 +2910,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2859,7 +2943,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2917,12 +3001,16 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3031,10 +3119,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -3059,22 +3147,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Information/estimation.xlsx
+++ b/Information/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="751" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="751" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -312,6 +312,84 @@
   </si>
   <si>
     <t>lire dans la bd(bug)</t>
+  </si>
+  <si>
+    <t>11-04-2017</t>
+  </si>
+  <si>
+    <t>lire dans la bd !DÉBUGER!</t>
+  </si>
+  <si>
+    <t>Ajouter des evenement a la db</t>
+  </si>
+  <si>
+    <t>attendre apres intelij</t>
+  </si>
+  <si>
+    <t>faire un bouton partager directement dans l'activité d'évenement(dropped:innutile)</t>
+  </si>
+  <si>
+    <t>23-04-2017</t>
+  </si>
+  <si>
+    <t>netoyage du code</t>
+  </si>
+  <si>
+    <t>24-04-2017</t>
+  </si>
+  <si>
+    <t>apprendre sur le matériel design/shadow</t>
+  </si>
+  <si>
+    <t>25-04-2017</t>
+  </si>
+  <si>
+    <t>apprendre sur le matériel design/shadow/color/ui</t>
+  </si>
+  <si>
+    <t>Faire la vue en paysage</t>
+  </si>
+  <si>
+    <t>30-04-2017</t>
+  </si>
+  <si>
+    <t>01-05-2017</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ok      80%</t>
+  </si>
+  <si>
+    <t>fragment drop</t>
+  </si>
+  <si>
+    <t>app-serveur drop</t>
+  </si>
+  <si>
+    <t>ok      50%</t>
+  </si>
+  <si>
+    <t>dropped</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>depuis navigateur</t>
+  </si>
+  <si>
+    <t>shadows</t>
+  </si>
+  <si>
+    <t>Faire un beau UI(couleur / séparateur)</t>
+  </si>
+  <si>
+    <t>07-05-2017</t>
+  </si>
+  <si>
+    <t>Préparation de l'oral</t>
   </si>
 </sst>
 </file>
@@ -455,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -495,6 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1764,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C37"/>
+  <dimension ref="A6:E37"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,40 +1854,41 @@
     <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="68.109375" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="5.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="5.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -1819,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1829,8 +1909,11 @@
       <c r="C16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -1840,8 +1923,14 @@
       <c r="C17" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -1851,8 +1940,14 @@
       <c r="C18" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>4</v>
       </c>
@@ -1862,8 +1957,11 @@
       <c r="C19" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>5</v>
       </c>
@@ -1873,30 +1971,33 @@
       <c r="C20" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="5.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="5.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
@@ -1907,7 +2008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>1</v>
       </c>
@@ -1917,8 +2018,11 @@
       <c r="C26" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2</v>
       </c>
@@ -1928,8 +2032,11 @@
       <c r="C27" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -1939,8 +2046,11 @@
       <c r="C28" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -1950,8 +2060,11 @@
       <c r="C29" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>5</v>
       </c>
@@ -1961,8 +2074,11 @@
       <c r="C30" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>6</v>
       </c>
@@ -1972,8 +2088,14 @@
       <c r="C31" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>7</v>
       </c>
@@ -1988,10 +2110,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>33</v>
@@ -2023,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2286,10 +2408,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>20.25</v>
@@ -2316,24 +2438,24 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2350,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2597,10 +2719,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>19</v>
@@ -2625,22 +2747,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2657,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView view="pageLayout" topLeftCell="B28" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2882,10 +3004,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>16</v>
@@ -2910,22 +3032,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2942,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,11 +3122,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3014,49 +3140,103 @@
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="15">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -3090,8 +3270,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -3119,13 +3303,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3147,22 +3331,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="24"/>
+      <c r="B44" s="25"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="B45" s="25"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
+      <c r="B46" s="25"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
+      <c r="B47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
